--- a/data/Renewables/prod_btu_re_te.xlsx
+++ b/data/Renewables/prod_btu_re_te.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wwwdev\website\state\seds\sep_prod\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganma\capp30122\30122-project-flavortown\data\Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82A1647-3F7B-442D-9D52-3B0E1725D7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E530DD89-F969-45DD-8152-7B51041ED877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -38272,7 +38272,7 @@
   <dimension ref="A1:CW55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -50510,11 +50510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CW57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
